--- a/SDET5_Balayesu/DataVtiger.xlsx
+++ b/SDET5_Balayesu/DataVtiger.xlsx
@@ -4,34 +4,44 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="16635" windowHeight="4740" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:Q14"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Test_Yantra_software_solutions</t>
   </si>
+  <si>
+    <t>Maria Anders</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF202124"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -54,8 +64,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -359,7 +370,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -380,11 +391,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
